--- a/back-end/fingerprint_pointing/media/excel_data/L1_IG_2021-2022.xlsx
+++ b/back-end/fingerprint_pointing/media/excel_data/L1_IG_2021-2022.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAKOTONDRAVAO\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18195" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18192" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Numero</t>
   </si>
@@ -251,19 +256,16 @@
   </si>
   <si>
     <t>RAKOTOMALALA Maminirina Celestin</t>
+  </si>
+  <si>
+    <t>Genre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,155 +277,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,8 +297,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor theme="8" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
     <fill>
@@ -442,194 +307,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -641,321 +320,54 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="8" tint="0.399975585192419"/>
+        <color theme="8" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="8" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="8" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -981,6 +393,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1238,508 +653,625 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="26.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C39">
-    <cfRule type="expression" dxfId="0" priority="4">
+  <conditionalFormatting sqref="D2:D39">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$AE2=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$AD2=1</formula>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$AF2=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D39">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="E2:E39">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$AE2=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$AD2=1</formula>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$AF2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/back-end/fingerprint_pointing/media/excel_data/L1_IG_2021-2022.xlsx
+++ b/back-end/fingerprint_pointing/media/excel_data/L1_IG_2021-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAKOTONDRAVAO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAKOTONDRAVAO\Desktop\DATA_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>Numero</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>Genre</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -661,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -691,8 +697,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="C2" t="s">
+        <v>80</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -706,8 +712,8 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -721,8 +727,8 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -736,8 +742,8 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" t="s">
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -751,8 +757,8 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -766,8 +772,8 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C7" t="s">
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -781,8 +787,8 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
-        <v>2</v>
+      <c r="C8" t="s">
+        <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -796,8 +802,8 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -811,8 +817,8 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
-        <v>2</v>
+      <c r="C10" t="s">
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
@@ -826,8 +832,8 @@
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
-        <v>2</v>
+      <c r="C11" t="s">
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
@@ -841,8 +847,8 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
-        <v>2</v>
+      <c r="C12" t="s">
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
@@ -856,8 +862,8 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>26</v>
@@ -871,8 +877,8 @@
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14">
-        <v>2</v>
+      <c r="C14" t="s">
+        <v>81</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>28</v>
@@ -886,8 +892,8 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15">
-        <v>2</v>
+      <c r="C15" t="s">
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -901,8 +907,8 @@
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="C16" t="s">
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>32</v>
@@ -916,8 +922,8 @@
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="C17" t="s">
+        <v>80</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
@@ -931,8 +937,8 @@
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>36</v>
@@ -946,8 +952,8 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="C19" t="s">
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>38</v>
@@ -961,8 +967,8 @@
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="C20" t="s">
+        <v>80</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>40</v>
@@ -976,8 +982,8 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="C21" t="s">
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>42</v>
@@ -991,8 +997,8 @@
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="C22" t="s">
+        <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>44</v>
@@ -1006,8 +1012,8 @@
       <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="C23" t="s">
+        <v>80</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>46</v>
@@ -1021,8 +1027,8 @@
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="C24" t="s">
+        <v>80</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>48</v>
@@ -1036,8 +1042,8 @@
       <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="C25" t="s">
+        <v>80</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>50</v>
@@ -1051,8 +1057,8 @@
       <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="C26" t="s">
+        <v>80</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>52</v>
@@ -1066,8 +1072,8 @@
       <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="C27" t="s">
+        <v>80</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>54</v>
@@ -1081,8 +1087,8 @@
       <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C28">
-        <v>2</v>
+      <c r="C28" t="s">
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>56</v>
@@ -1096,8 +1102,8 @@
       <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="C29" t="s">
+        <v>80</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>58</v>
@@ -1111,8 +1117,8 @@
       <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="C30" t="s">
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>60</v>
@@ -1126,8 +1132,8 @@
       <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="C31" t="s">
+        <v>80</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>62</v>
@@ -1141,8 +1147,8 @@
       <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="C32" t="s">
+        <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>64</v>
@@ -1156,8 +1162,8 @@
       <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="C33">
-        <v>1</v>
+      <c r="C33" t="s">
+        <v>80</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>66</v>
@@ -1171,8 +1177,8 @@
       <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="C34">
-        <v>2</v>
+      <c r="C34" t="s">
+        <v>81</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>68</v>
@@ -1186,8 +1192,8 @@
       <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C35">
-        <v>1</v>
+      <c r="C35" t="s">
+        <v>80</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>70</v>
@@ -1201,8 +1207,8 @@
       <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C36">
-        <v>1</v>
+      <c r="C36" t="s">
+        <v>80</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>72</v>
@@ -1216,8 +1222,8 @@
       <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="C37">
-        <v>1</v>
+      <c r="C37" t="s">
+        <v>80</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>74</v>
@@ -1231,8 +1237,8 @@
       <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="C38">
-        <v>1</v>
+      <c r="C38" t="s">
+        <v>80</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>76</v>
@@ -1246,8 +1252,8 @@
       <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="C39">
-        <v>1</v>
+      <c r="C39" t="s">
+        <v>80</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>78</v>
